--- a/Data/Processed/Angiosperms/missing_powo_ipni/Erythroxylaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Erythroxylaceae.xlsx
@@ -2797,7 +2797,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 322. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 322. 1895</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Nac. Rio de Janeiro 1: 30. 1923 </t>
+          <t>Bol. Mus. Nac. Rio de Janeiro 1: 30. 1923</t>
         </is>
       </c>
       <c r="J93" t="b">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) IV. 134: 55. 1907 </t>
+          <t>Pflanzenr. (Engler) IV. 134: 55. 1907</t>
         </is>
       </c>
       <c r="J94" t="b">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 4, Fam. 134: 82. 1907 </t>
+          <t>Pflanzenr. (Engler) 4, Fam. 134: 82. 1907</t>
         </is>
       </c>
       <c r="J95" t="b">
